--- a/reproducibility-package/relevant-venues-and-studies.xlsx
+++ b/reproducibility-package/relevant-venues-and-studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8VO SEMESTRE\Proyecto guiado\Reporte de RSL\ethical-persuasive-system-design-slr\reproducibility-package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DFCC309-D274-4097-9FFA-9F7186CB7D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469892FB-9061-442E-99B7-724B51AFF04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F540188B-1FCA-47B8-854A-B2032256BC20}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>Abrev.</t>
   </si>
@@ -298,6 +298,24 @@
   </si>
   <si>
     <t>Mallawaarachchi, S. R., Tieppo, A., Hooley, M., &amp; Horwood, S. (2023). Persuasive design-related motivators, ability factors and prompts in early childhood apps: a content analysis. Computers in Human Behavior, 139, 107492.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Impact score by: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://research.com/conference-rankings/computer-science/software-programming
+https://research.com/journals-rankings/computer-science</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -329,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +363,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +415,7 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,16 +427,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A1BC8-CDB3-4D2E-9620-DA4111FBDA1E}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,8 +941,21 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -927,7 +964,7 @@
   <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,48 +979,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1023,7 +1060,7 @@
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1032,7 +1069,7 @@
       <c r="G5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1041,7 +1078,7 @@
       <c r="K5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1072,7 +1109,7 @@
       <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1081,7 +1118,7 @@
       <c r="G7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1103,7 +1140,7 @@
       <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1125,7 +1162,7 @@
       <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1147,7 +1184,7 @@
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1169,7 +1206,7 @@
       <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>64</v>
       </c>
     </row>
